--- a/biology/Zoologie/Echinolampadacea/Echinolampadacea.xlsx
+++ b/biology/Zoologie/Echinolampadacea/Echinolampadacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinolampadacea sont un ordre d'oursins irréguliers.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Echinolampadacea a été créé en 2018 par Nicolás Mongiardino Koch (d), Simon E. Coppard (d), Harilaos A. Lessios (d), Derek Briggs, Rich Mooi (d) et Greg W. Rouse (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Echinolampadacea a été créé en 2018 par Nicolás Mongiardino Koch (d), Simon E. Coppard (d), Harilaos A. Lessios (d), Derek Briggs, Rich Mooi (d) et Greg W. Rouse (d).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers : ils ne sont pas ronds mais ovoïdes (parfois subpentagonaux) et souvent aplatis (sauf quelques groupes et les espèces minuscules). Leur anus (ainsi que parfois la bouche) s'étant déplacé vers un côté du test pour former un « arrière » (au lieu d'être au sommet de la face aborale), par opposition à un « avant », formant ainsi un axe antéro-postérieur (qui est aussi un sens de locomotion privilégié), assorti d'une symétrie bilatérale. Leur test arbore des ambulacres pétaloïdes larges et arrondis ; le disque apical est très réduit (tétrabasal ou monobasal). Chez certaines familles à la silhouette très aplatie, on observe des perforations naturelles appelées « lunules ». 
 Les radioles sont courtes, fines et creuses, transformées en tapis velouté. Le péristome est petit, sans encoches buccales, et abrite un appareil brouteur (Lanterne d'Aristote), souvent en position centrale, contrairement à la plupart des autres irréguliers (à l'exception des Cassidulidae adultes). 
@@ -577,7 +593,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oursins ont un régime sédimentivore : leurs radioles et podia filtrent le sédiment et en acheminent, via des sillons buccaux, les particules nutritives jusqu'à la bouche où les éléments nutritifs seront broyés par la lanterne d'Aristote. Ces oursins vivent plus ou moins enfouis dans le sédiment, que ce soit pour se nourrir ou se protéger de prédateurs.
 Ces animaux peuvent parfois atteindre des densités de populations extrêmement importantes là où la nourriture est abondante, et forment une partie significative de la biomasse des grands fonds sablo-vaseux : de par leur régime sédimentivore, ils constituent ainsi des animaux d'une grande importance dans les processus biologiques à l'échelle de la Terre, et sont de grands pourvoyeurs de services écosystémiques.
@@ -609,9 +627,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 mars 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 mars 2022) :
 sous-ordre Cassiduloida Claus, 1880
 Super-famille Cassidulina (Philip, 1963b)
 famille Cassidulidae (L. Agassiz and Desor, 1847)
@@ -679,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Nicolás Mongiardino Koch, Simon E Coppard, Harilaos A. Lessios, Derek E.G. Briggs, Rich Mooi et Greg W. Rouse, « A phylogenomic resolution of the sea urchin tree of life », BMC Evolutionary Biology, BMC et Springer Science+Business Media, vol. 18, no 1,‎ 29 septembre 2018, p. 189 (ISSN 1471-2148, OCLC 47657384, PMID 30545284, PMCID 6293586, DOI 10.1186/S12862-018-1300-4, lire en ligne)</t>
         </is>
